--- a/TestAutomataDFA_NFA/ResultadosFinal/RepCiberia.dot_CONTINUO_877371829432085.xlsx
+++ b/TestAutomataDFA_NFA/ResultadosFinal/RepCiberia.dot_CONTINUO_877371829432085.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Construccion_Navegacion" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="NavegacionNFA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:AB35"/>
+  <oleSize ref="AQ25:BQ59"/>
 </workbook>
 </file>
 
@@ -6279,11 +6279,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="422064104"/>
-        <c:axId val="422064496"/>
+        <c:axId val="419616640"/>
+        <c:axId val="419620952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="422064104"/>
+        <c:axId val="419616640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6325,7 +6325,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422064496"/>
+        <c:crossAx val="419620952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6333,7 +6333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="422064496"/>
+        <c:axId val="419620952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6384,7 +6384,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422064104"/>
+        <c:crossAx val="419616640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6505,7 +6505,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6972,11 +6971,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="419713632"/>
-        <c:axId val="419716376"/>
+        <c:axId val="419617424"/>
+        <c:axId val="419621344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419713632"/>
+        <c:axId val="419617424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7013,7 +7012,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7079,7 +7077,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419716376"/>
+        <c:crossAx val="419621344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7087,7 +7085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419716376"/>
+        <c:axId val="419621344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7133,7 +7131,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7194,7 +7191,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419713632"/>
+        <c:crossAx val="419617424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7208,7 +7205,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7315,7 +7311,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7782,11 +7777,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="476593688"/>
-        <c:axId val="476592904"/>
+        <c:axId val="419620168"/>
+        <c:axId val="419617816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="476593688"/>
+        <c:axId val="419620168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7818,7 +7813,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7884,7 +7878,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476592904"/>
+        <c:crossAx val="419617816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7892,7 +7886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476592904"/>
+        <c:axId val="419617816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7943,7 +7937,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8004,7 +7997,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476593688"/>
+        <c:crossAx val="419620168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8018,7 +8011,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8917,11 +8909,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="489073664"/>
-        <c:axId val="489071312"/>
+        <c:axId val="384378280"/>
+        <c:axId val="423376008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="489073664"/>
+        <c:axId val="384378280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8964,7 +8956,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489071312"/>
+        <c:crossAx val="423376008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8972,7 +8964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489071312"/>
+        <c:axId val="423376008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9023,7 +9015,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489073664"/>
+        <c:crossAx val="384378280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11728,7 +11720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
@@ -45388,8 +45380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MJ59"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BQ49" sqref="BQ49"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestAutomataDFA_NFA/ResultadosFinal/RepCiberia.dot_CONTINUO_877371829432085.xlsx
+++ b/TestAutomataDFA_NFA/ResultadosFinal/RepCiberia.dot_CONTINUO_877371829432085.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ILSA\Downloads\Final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11340" activeTab="3"/>
   </bookViews>
@@ -13,7 +18,6 @@
     <sheet name="NavegacionNFA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="AQ25:BQ59"/>
 </workbook>
 </file>
 
@@ -6279,11 +6283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="419616640"/>
-        <c:axId val="419620952"/>
+        <c:axId val="450800080"/>
+        <c:axId val="450792632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419616640"/>
+        <c:axId val="450800080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6325,7 +6329,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419620952"/>
+        <c:crossAx val="450792632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6333,7 +6337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419620952"/>
+        <c:axId val="450792632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6384,7 +6388,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419616640"/>
+        <c:crossAx val="450800080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6505,6 +6509,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6566,6 +6571,189 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Construccion!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Construccion!$F$2:$F$59</c:f>
@@ -6777,6 +6965,189 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Construccion!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Construccion!$E$2:$E$59</c:f>
@@ -6971,11 +7342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="419617424"/>
-        <c:axId val="419621344"/>
+        <c:axId val="172491488"/>
+        <c:axId val="454730768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419617424"/>
+        <c:axId val="172491488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7012,6 +7383,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7041,6 +7413,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7077,7 +7450,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419621344"/>
+        <c:crossAx val="454730768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7085,7 +7458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419621344"/>
+        <c:axId val="454730768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7131,6 +7504,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7191,7 +7565,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419617424"/>
+        <c:crossAx val="172491488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7205,6 +7579,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7311,6 +7686,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7372,6 +7748,189 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Construccion!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Construccion!$C$2:$C$59</c:f>
@@ -7583,6 +8142,189 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Construccion!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Construccion!$B$2:$B$59</c:f>
@@ -7777,11 +8519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="419620168"/>
-        <c:axId val="419617816"/>
+        <c:axId val="454725672"/>
+        <c:axId val="454724496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419620168"/>
+        <c:axId val="454725672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7813,6 +8555,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7842,6 +8585,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7878,7 +8622,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419617816"/>
+        <c:crossAx val="454724496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7886,7 +8630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419617816"/>
+        <c:axId val="454724496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7937,6 +8681,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7997,7 +8742,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419620168"/>
+        <c:crossAx val="454725672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8011,6 +8756,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8092,6 +8838,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempos de Navegacion segun el numero de documentos en (ns)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -8909,11 +9680,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="384378280"/>
-        <c:axId val="423376008"/>
+        <c:axId val="454729592"/>
+        <c:axId val="454729984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="384378280"/>
+        <c:axId val="454729592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8956,7 +9727,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423376008"/>
+        <c:crossAx val="454729984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8964,7 +9735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="423376008"/>
+        <c:axId val="454729984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9015,7 +9786,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384378280"/>
+        <c:crossAx val="454729592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -34783,7 +35554,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35980,9 +36751,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MJ59"/>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
+    <sheetView topLeftCell="AT2" workbookViewId="0">
       <selection activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
@@ -35991,7 +36762,7 @@
     <col min="52" max="52" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -36149,7 +36920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -36308,7 +37079,7 @@
         <v>2419.2800000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -36467,7 +37238,7 @@
         <v>29253.84</v>
       </c>
     </row>
-    <row r="4" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -36626,7 +37397,7 @@
         <v>20885.240000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -36785,7 +37556,7 @@
         <v>46177</v>
       </c>
     </row>
-    <row r="6" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -36944,7 +37715,7 @@
         <v>31973.18</v>
       </c>
     </row>
-    <row r="7" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>36</v>
       </c>
@@ -37103,7 +37874,7 @@
         <v>25525.86</v>
       </c>
     </row>
-    <row r="8" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42</v>
       </c>
@@ -37262,7 +38033,7 @@
         <v>19222.259999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>48</v>
       </c>
@@ -37421,7 +38192,7 @@
         <v>54406.96</v>
       </c>
     </row>
-    <row r="10" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>54</v>
       </c>
@@ -37580,7 +38351,7 @@
         <v>22482.04</v>
       </c>
     </row>
-    <row r="11" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60</v>
       </c>
@@ -37739,7 +38510,7 @@
         <v>31342.959999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>66</v>
       </c>
@@ -37898,7 +38669,7 @@
         <v>40551.919999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>72</v>
       </c>
@@ -38057,7 +38828,7 @@
         <v>46308.74</v>
       </c>
     </row>
-    <row r="14" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>78</v>
       </c>
@@ -38216,7 +38987,7 @@
         <v>48668.28</v>
       </c>
     </row>
-    <row r="15" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>84</v>
       </c>
@@ -38375,7 +39146,7 @@
         <v>78594.320000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>90</v>
       </c>
@@ -45378,10 +46149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MJ59"/>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1:AZ2"/>
+    <sheetView tabSelected="1" topLeftCell="BC20" workbookViewId="0">
+      <selection activeCell="BR45" sqref="BR45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45389,7 +46160,7 @@
     <col min="52" max="52" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -45547,7 +46318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -45706,7 +46477,7 @@
         <v>6627.54</v>
       </c>
     </row>
-    <row r="3" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -45865,7 +46636,7 @@
         <v>39291.1</v>
       </c>
     </row>
-    <row r="4" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -46024,7 +46795,7 @@
         <v>67440.3</v>
       </c>
     </row>
-    <row r="5" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -46183,7 +46954,7 @@
         <v>236377.38</v>
       </c>
     </row>
-    <row r="6" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -46342,7 +47113,7 @@
         <v>254939.26</v>
       </c>
     </row>
-    <row r="7" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>36</v>
       </c>
@@ -46501,7 +47272,7 @@
         <v>144881.74</v>
       </c>
     </row>
-    <row r="8" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42</v>
       </c>
@@ -46660,7 +47431,7 @@
         <v>178836.28</v>
       </c>
     </row>
-    <row r="9" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>48</v>
       </c>
@@ -46819,7 +47590,7 @@
         <v>295166.7</v>
       </c>
     </row>
-    <row r="10" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>54</v>
       </c>
@@ -46978,7 +47749,7 @@
         <v>236839.36</v>
       </c>
     </row>
-    <row r="11" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60</v>
       </c>
@@ -47137,7 +47908,7 @@
         <v>258330.84</v>
       </c>
     </row>
-    <row r="12" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>66</v>
       </c>
@@ -47296,7 +48067,7 @@
         <v>186436.14</v>
       </c>
     </row>
-    <row r="13" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>72</v>
       </c>
@@ -47455,7 +48226,7 @@
         <v>307863.86</v>
       </c>
     </row>
-    <row r="14" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>78</v>
       </c>
@@ -47614,7 +48385,7 @@
         <v>229539.18</v>
       </c>
     </row>
-    <row r="15" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>84</v>
       </c>
@@ -47773,7 +48544,7 @@
         <v>315049.40000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>90</v>
       </c>
